--- a/testes/teste_pre_dot.xlsx
+++ b/testes/teste_pre_dot.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\Área de Trabalho\a01_codigos\A00_predot_python\z_resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\Área de Trabalho\a01_codigos\a16_LegalTrackHub\testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EBEFED-1374-43CB-A727-0DA8D7CD96CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDAF1D8-B8C7-491F-801F-BA7F58CD7C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>nada</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>07.779.427/0001-89</t>
+  </si>
+  <si>
+    <t>21.578.639/0001-29</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E11" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,9 +459,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/testes/teste_pre_dot.xlsx
+++ b/testes/teste_pre_dot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\Área de Trabalho\a01_codigos\a16_LegalTrackHub\testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDAF1D8-B8C7-491F-801F-BA7F58CD7C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5D4AC6-E50C-46A2-8B2D-5068BA55252A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -401,12 +401,12 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E10:E11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -416,57 +416,57 @@
     </row>
     <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
